--- a/DPL/Harshit/JIRA-1461.xlsx
+++ b/DPL/Harshit/JIRA-1461.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harshit.rai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AEAA6F-42D4-4F11-AC82-22A6227D48CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12F7DBD-403F-4BCD-B56A-C74D87D2ECEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Incase of need please insert row above this.</t>
   </si>
   <si>
-    <t>&lt;22/05/2024&gt;</t>
-  </si>
-  <si>
     <t>At Exceptions queue, when user clicks Re-Run policy button</t>
   </si>
   <si>
@@ -148,15 +145,6 @@
     <t xml:space="preserve">Process Name to be sent as 'IBPS_UW' and EFR_NSTP as 'Y' </t>
   </si>
   <si>
-    <t>AECB call will be triggered and Re-Run Policy will be mandatory</t>
-  </si>
-  <si>
-    <t>Dectech call will be triggered</t>
-  </si>
-  <si>
-    <t>Override flag to be sent as 1 when triggered from Exceptions</t>
-  </si>
-  <si>
     <t>AECB report will be updated accordingly(View AECB report button in AECB details section)</t>
   </si>
   <si>
@@ -188,6 +176,102 @@
   </si>
   <si>
     <t>Field to be sent in Dectech request under &lt;InternalBureauDBRTAICalc&gt;, in tag name &lt;Final_UW_Salary&gt;</t>
+  </si>
+  <si>
+    <t>Override flag to be sent as 1 in External_Exposure call</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AECB call will be triggered and user will get a pop-up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">'AECB call triggered'. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Re-Run Policy will be mandatory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dectech call will be triggered and user will get a pop-up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'Dectech call triggered'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>At Exceptions queue when user takes Decision as Submit</t>
+  </si>
+  <si>
+    <t>A checkbox will be made visible 'Ensure Delegation is in place to approve'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If AECB call fails the user will get a pop-up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'Some error occurred in AECB'.</t>
+    </r>
+  </si>
+  <si>
+    <t>At Exceptions queue, when user clicks Re-Policy AECB button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If Dectech call fails the user will get a pop-up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'Some error occurred in Dectech'.</t>
+    </r>
+  </si>
+  <si>
+    <t>If users takes Decision after clicking Re-Run AECB button</t>
+  </si>
+  <si>
+    <t>User will get pop-up 'Re-run policy before submitting WI'</t>
+  </si>
+  <si>
+    <t>If AECB call fails Dectech will not be mandatory to run(Re-Run Policy)</t>
+  </si>
+  <si>
+    <t>&lt;29/05/2024&gt;</t>
   </si>
 </sst>
 </file>
@@ -316,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -501,11 +585,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -573,9 +679,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -590,12 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -605,15 +702,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -644,16 +750,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -951,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:K17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1019,7 +1128,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="46"/>
       <c r="F3" s="21" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
@@ -1074,30 +1183,30 @@
       <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-    </row>
-    <row r="7" spans="1:11" ht="48" customHeight="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" ht="70.5" customHeight="1">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="6" t="s">
@@ -1109,16 +1218,16 @@
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="48" customHeight="1">
+    <row r="8" spans="1:11" ht="66" customHeight="1">
       <c r="A8" s="4">
         <v>2</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="6" t="s">
@@ -1136,10 +1245,10 @@
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="6" t="s">
@@ -1157,10 +1266,10 @@
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="6" t="s">
@@ -1178,10 +1287,10 @@
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="6" t="s">
@@ -1198,11 +1307,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>28</v>
+      <c r="C12" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="6" t="s">
@@ -1219,13 +1328,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="22"/>
-      <c r="C13" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="24"/>
+      <c r="C13" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="50"/>
       <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1240,11 +1349,11 @@
         <v>8</v>
       </c>
       <c r="B14" s="22"/>
-      <c r="C14" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>32</v>
+      <c r="C14" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="6" t="s">
@@ -1261,157 +1370,213 @@
         <v>9</v>
       </c>
       <c r="B15" s="22"/>
-      <c r="C15" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="67.5" customHeight="1">
+    <row r="16" spans="1:11" ht="63">
       <c r="A16" s="4">
         <v>10</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="50" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="54"/>
+      <c r="F16" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" ht="67.5" customHeight="1">
+      <c r="A17" s="4">
+        <v>11</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="6" t="s">
+      <c r="D17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="53" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
+      <c r="A18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="8">
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" ht="47.25">
+      <c r="A19" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="33" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="8">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" ht="47.25">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="33" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="38">
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" ht="47.25">
+      <c r="A21" s="8">
         <v>3</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="33" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="38">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" ht="31.5">
+      <c r="A22" s="34">
         <v>4</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="33" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="42" t="s">
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="34">
+        <v>5</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75">
+      <c r="A24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="19"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A24:K24"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
@@ -1424,7 +1589,7 @@
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E23 E16 E19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E25 E17 E21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Catastrophic,Serious,Cosmetic,Deficient"</formula1>
     </dataValidation>
   </dataValidations>
